--- a/MedicalLink/Templates/So_XetNghiem_ViSinh.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_ViSinh.xlsx
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>Mã BN</t>
   </si>
   <si>
@@ -123,6 +117,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGUOIDUYET</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -269,6 +269,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -281,8 +284,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,102 +598,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="E2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="E3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="G7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="I7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="J7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="K7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>29</v>
+      <c r="L7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -735,53 +738,54 @@
     </row>
     <row r="10" spans="1:13" s="17" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="I10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="L10" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="23"/>
+      <c r="L13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="A1:C1"/>
@@ -798,7 +802,6 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_XetNghiem_ViSinh.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_ViSinh.xlsx
@@ -104,9 +104,6 @@
     <t>&amp;=[DATA1].KETQUA</t>
   </si>
   <si>
-    <t>&amp;=[DATA].TENBAOCAO</t>
-  </si>
-  <si>
     <t>Người thực hiện</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>SỔ XÉT NGHIỆM VI SINH</t>
   </si>
 </sst>
 </file>
@@ -269,13 +269,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -283,9 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -577,7 +577,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="E3" sqref="E3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,102 +598,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -771,20 +771,21 @@
         <v>24</v>
       </c>
       <c r="L10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="M7:M8"/>
@@ -801,7 +802,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
